--- a/ProjectEuler/problem361.xlsx
+++ b/ProjectEuler/problem361.xlsx
@@ -12,6 +12,8 @@
     <sheet name="Sheet3" sheetId="3" r:id="rId3"/>
   </sheets>
   <definedNames>
+    <definedName name="_xlnm.Print_Area" localSheetId="0">Sheet1!$B$3:$D$61</definedName>
+    <definedName name="Problem11" localSheetId="0">Sheet1!$G$53:$Z$72</definedName>
     <definedName name="problem361" localSheetId="0">Sheet1!$C$3:$C$369</definedName>
   </definedNames>
   <calcPr calcId="144525"/>
@@ -20,7 +22,33 @@
 
 <file path=xl/connections.xml><?xml version="1.0" encoding="utf-8"?>
 <connections xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
-  <connection id="1" name="problem361" type="6" refreshedVersion="4" background="1" saveData="1">
+  <connection id="1" name="Problem11" type="6" refreshedVersion="4" background="1" saveData="1">
+    <textPr codePage="850" sourceFile="C:\Users\Lucas\Documents\MATLAB\Scripts\Project Euler\Problem11.txt" tab="0" space="1" consecutive="1">
+      <textFields count="20">
+        <textField/>
+        <textField/>
+        <textField/>
+        <textField/>
+        <textField/>
+        <textField/>
+        <textField/>
+        <textField/>
+        <textField/>
+        <textField/>
+        <textField/>
+        <textField/>
+        <textField/>
+        <textField/>
+        <textField/>
+        <textField/>
+        <textField/>
+        <textField/>
+        <textField/>
+        <textField/>
+      </textFields>
+    </textPr>
+  </connection>
+  <connection id="2" name="problem361" type="6" refreshedVersion="4" background="1" saveData="1">
     <textPr codePage="850" sourceFile="C:\Users\Lucas\Documents\Worthless Pile of Gold\trunk\ProjectEuler\problem361.txt" tab="0" space="1" consecutive="1" delimiter=":">
       <textFields count="2">
         <textField type="skip"/>
@@ -2366,11 +2394,11 @@
           <c:showPercent val="0"/>
           <c:showBubbleSize val="0"/>
         </c:dLbls>
-        <c:axId val="152606336"/>
-        <c:axId val="152606912"/>
+        <c:axId val="56306496"/>
+        <c:axId val="56307072"/>
       </c:scatterChart>
       <c:valAx>
-        <c:axId val="152606336"/>
+        <c:axId val="56306496"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -2380,12 +2408,12 @@
         <c:majorTickMark val="out"/>
         <c:minorTickMark val="none"/>
         <c:tickLblPos val="nextTo"/>
-        <c:crossAx val="152606912"/>
+        <c:crossAx val="56307072"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="midCat"/>
       </c:valAx>
       <c:valAx>
-        <c:axId val="152606912"/>
+        <c:axId val="56307072"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -2396,7 +2424,7 @@
         <c:majorTickMark val="out"/>
         <c:minorTickMark val="none"/>
         <c:tickLblPos val="nextTo"/>
-        <c:crossAx val="152606336"/>
+        <c:crossAx val="56306496"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="midCat"/>
       </c:valAx>
@@ -2456,7 +2484,11 @@
 </file>
 
 <file path=xl/queryTables/queryTable1.xml><?xml version="1.0" encoding="utf-8"?>
-<queryTable xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" name="problem361" connectionId="1" autoFormatId="16" applyNumberFormats="0" applyBorderFormats="0" applyFontFormats="1" applyPatternFormats="1" applyAlignmentFormats="0" applyWidthHeightFormats="0"/>
+<queryTable xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" name="Problem11" connectionId="1" autoFormatId="16" applyNumberFormats="0" applyBorderFormats="0" applyFontFormats="1" applyPatternFormats="1" applyAlignmentFormats="0" applyWidthHeightFormats="0"/>
+</file>
+
+<file path=xl/queryTables/queryTable2.xml><?xml version="1.0" encoding="utf-8"?>
+<queryTable xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" name="problem361" connectionId="2" autoFormatId="16" applyNumberFormats="0" applyBorderFormats="0" applyFontFormats="1" applyPatternFormats="1" applyAlignmentFormats="0" applyWidthHeightFormats="0"/>
 </file>
 
 <file path=xl/theme/theme1.xml><?xml version="1.0" encoding="utf-8"?>
@@ -2746,10 +2778,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="B2:G369"/>
+  <dimension ref="B2:Z369"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A52" workbookViewId="0">
-      <selection activeCell="D62" sqref="D62"/>
+    <sheetView tabSelected="1" topLeftCell="A53" workbookViewId="0">
+      <selection activeCell="G53" sqref="G53:Z72"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -2757,6 +2789,7 @@
     <col min="3" max="3" width="8" bestFit="1" customWidth="1"/>
     <col min="4" max="4" width="23.42578125" customWidth="1"/>
     <col min="5" max="6" width="12" bestFit="1" customWidth="1"/>
+    <col min="7" max="26" width="3" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="2" spans="2:7" x14ac:dyDescent="0.25">
@@ -3370,7 +3403,7 @@
         <v>0011010010</v>
       </c>
     </row>
-    <row r="49" spans="2:4" x14ac:dyDescent="0.25">
+    <row r="49" spans="2:26" x14ac:dyDescent="0.25">
       <c r="B49">
         <v>46</v>
       </c>
@@ -3382,7 +3415,7 @@
         <v>0011010011</v>
       </c>
     </row>
-    <row r="50" spans="2:4" x14ac:dyDescent="0.25">
+    <row r="50" spans="2:26" x14ac:dyDescent="0.25">
       <c r="B50">
         <v>47</v>
       </c>
@@ -3394,7 +3427,7 @@
         <v>0100101100</v>
       </c>
     </row>
-    <row r="51" spans="2:4" x14ac:dyDescent="0.25">
+    <row r="51" spans="2:26" x14ac:dyDescent="0.25">
       <c r="B51">
         <v>48</v>
       </c>
@@ -3406,7 +3439,7 @@
         <v>0100101101</v>
       </c>
     </row>
-    <row r="52" spans="2:4" x14ac:dyDescent="0.25">
+    <row r="52" spans="2:26" x14ac:dyDescent="0.25">
       <c r="B52">
         <v>49</v>
       </c>
@@ -3418,7 +3451,7 @@
         <v>0100110010</v>
       </c>
     </row>
-    <row r="53" spans="2:4" x14ac:dyDescent="0.25">
+    <row r="53" spans="2:26" x14ac:dyDescent="0.25">
       <c r="B53">
         <v>50</v>
       </c>
@@ -3429,8 +3462,68 @@
         <f t="shared" si="0"/>
         <v>0100110100</v>
       </c>
-    </row>
-    <row r="54" spans="2:4" x14ac:dyDescent="0.25">
+      <c r="G53">
+        <v>8</v>
+      </c>
+      <c r="H53">
+        <v>2</v>
+      </c>
+      <c r="I53">
+        <v>22</v>
+      </c>
+      <c r="J53">
+        <v>97</v>
+      </c>
+      <c r="K53">
+        <v>38</v>
+      </c>
+      <c r="L53">
+        <v>15</v>
+      </c>
+      <c r="M53">
+        <v>0</v>
+      </c>
+      <c r="N53">
+        <v>40</v>
+      </c>
+      <c r="O53">
+        <v>0</v>
+      </c>
+      <c r="P53">
+        <v>75</v>
+      </c>
+      <c r="Q53">
+        <v>4</v>
+      </c>
+      <c r="R53">
+        <v>5</v>
+      </c>
+      <c r="S53">
+        <v>7</v>
+      </c>
+      <c r="T53">
+        <v>78</v>
+      </c>
+      <c r="U53">
+        <v>52</v>
+      </c>
+      <c r="V53">
+        <v>12</v>
+      </c>
+      <c r="W53">
+        <v>50</v>
+      </c>
+      <c r="X53">
+        <v>77</v>
+      </c>
+      <c r="Y53">
+        <v>91</v>
+      </c>
+      <c r="Z53">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="54" spans="2:26" x14ac:dyDescent="0.25">
       <c r="B54">
         <v>51</v>
       </c>
@@ -3441,8 +3534,68 @@
         <f t="shared" si="0"/>
         <v>0101001011</v>
       </c>
-    </row>
-    <row r="55" spans="2:4" x14ac:dyDescent="0.25">
+      <c r="G54">
+        <v>49</v>
+      </c>
+      <c r="H54">
+        <v>49</v>
+      </c>
+      <c r="I54">
+        <v>99</v>
+      </c>
+      <c r="J54">
+        <v>40</v>
+      </c>
+      <c r="K54">
+        <v>17</v>
+      </c>
+      <c r="L54">
+        <v>81</v>
+      </c>
+      <c r="M54">
+        <v>18</v>
+      </c>
+      <c r="N54">
+        <v>57</v>
+      </c>
+      <c r="O54">
+        <v>60</v>
+      </c>
+      <c r="P54">
+        <v>87</v>
+      </c>
+      <c r="Q54">
+        <v>17</v>
+      </c>
+      <c r="R54">
+        <v>40</v>
+      </c>
+      <c r="S54">
+        <v>98</v>
+      </c>
+      <c r="T54">
+        <v>43</v>
+      </c>
+      <c r="U54">
+        <v>69</v>
+      </c>
+      <c r="V54">
+        <v>48</v>
+      </c>
+      <c r="W54">
+        <v>4</v>
+      </c>
+      <c r="X54">
+        <v>56</v>
+      </c>
+      <c r="Y54">
+        <v>62</v>
+      </c>
+      <c r="Z54">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="55" spans="2:26" x14ac:dyDescent="0.25">
       <c r="B55">
         <v>52</v>
       </c>
@@ -3453,8 +3606,68 @@
         <f t="shared" si="0"/>
         <v>0101001100</v>
       </c>
-    </row>
-    <row r="56" spans="2:4" x14ac:dyDescent="0.25">
+      <c r="G55">
+        <v>81</v>
+      </c>
+      <c r="H55">
+        <v>49</v>
+      </c>
+      <c r="I55">
+        <v>31</v>
+      </c>
+      <c r="J55">
+        <v>73</v>
+      </c>
+      <c r="K55">
+        <v>55</v>
+      </c>
+      <c r="L55">
+        <v>79</v>
+      </c>
+      <c r="M55">
+        <v>14</v>
+      </c>
+      <c r="N55">
+        <v>29</v>
+      </c>
+      <c r="O55">
+        <v>93</v>
+      </c>
+      <c r="P55">
+        <v>71</v>
+      </c>
+      <c r="Q55">
+        <v>40</v>
+      </c>
+      <c r="R55">
+        <v>67</v>
+      </c>
+      <c r="S55">
+        <v>53</v>
+      </c>
+      <c r="T55">
+        <v>88</v>
+      </c>
+      <c r="U55">
+        <v>30</v>
+      </c>
+      <c r="V55">
+        <v>3</v>
+      </c>
+      <c r="W55">
+        <v>49</v>
+      </c>
+      <c r="X55">
+        <v>13</v>
+      </c>
+      <c r="Y55">
+        <v>36</v>
+      </c>
+      <c r="Z55">
+        <v>65</v>
+      </c>
+    </row>
+    <row r="56" spans="2:26" x14ac:dyDescent="0.25">
       <c r="B56">
         <v>53</v>
       </c>
@@ -3465,8 +3678,68 @@
         <f t="shared" si="0"/>
         <v>0101100110</v>
       </c>
-    </row>
-    <row r="57" spans="2:4" x14ac:dyDescent="0.25">
+      <c r="G56">
+        <v>52</v>
+      </c>
+      <c r="H56">
+        <v>70</v>
+      </c>
+      <c r="I56">
+        <v>95</v>
+      </c>
+      <c r="J56">
+        <v>23</v>
+      </c>
+      <c r="K56">
+        <v>4</v>
+      </c>
+      <c r="L56">
+        <v>60</v>
+      </c>
+      <c r="M56">
+        <v>11</v>
+      </c>
+      <c r="N56">
+        <v>42</v>
+      </c>
+      <c r="O56">
+        <v>69</v>
+      </c>
+      <c r="P56">
+        <v>24</v>
+      </c>
+      <c r="Q56">
+        <v>68</v>
+      </c>
+      <c r="R56">
+        <v>56</v>
+      </c>
+      <c r="S56">
+        <v>1</v>
+      </c>
+      <c r="T56">
+        <v>32</v>
+      </c>
+      <c r="U56">
+        <v>56</v>
+      </c>
+      <c r="V56">
+        <v>71</v>
+      </c>
+      <c r="W56">
+        <v>37</v>
+      </c>
+      <c r="X56">
+        <v>2</v>
+      </c>
+      <c r="Y56">
+        <v>36</v>
+      </c>
+      <c r="Z56">
+        <v>91</v>
+      </c>
+    </row>
+    <row r="57" spans="2:26" x14ac:dyDescent="0.25">
       <c r="B57">
         <v>54</v>
       </c>
@@ -3477,8 +3750,68 @@
         <f t="shared" si="0"/>
         <v>0101101001</v>
       </c>
-    </row>
-    <row r="58" spans="2:4" x14ac:dyDescent="0.25">
+      <c r="G57">
+        <v>22</v>
+      </c>
+      <c r="H57">
+        <v>31</v>
+      </c>
+      <c r="I57">
+        <v>16</v>
+      </c>
+      <c r="J57">
+        <v>71</v>
+      </c>
+      <c r="K57">
+        <v>51</v>
+      </c>
+      <c r="L57">
+        <v>67</v>
+      </c>
+      <c r="M57">
+        <v>63</v>
+      </c>
+      <c r="N57">
+        <v>89</v>
+      </c>
+      <c r="O57">
+        <v>41</v>
+      </c>
+      <c r="P57">
+        <v>92</v>
+      </c>
+      <c r="Q57">
+        <v>36</v>
+      </c>
+      <c r="R57">
+        <v>54</v>
+      </c>
+      <c r="S57">
+        <v>22</v>
+      </c>
+      <c r="T57">
+        <v>40</v>
+      </c>
+      <c r="U57">
+        <v>40</v>
+      </c>
+      <c r="V57">
+        <v>28</v>
+      </c>
+      <c r="W57">
+        <v>66</v>
+      </c>
+      <c r="X57">
+        <v>33</v>
+      </c>
+      <c r="Y57">
+        <v>13</v>
+      </c>
+      <c r="Z57">
+        <v>80</v>
+      </c>
+    </row>
+    <row r="58" spans="2:26" x14ac:dyDescent="0.25">
       <c r="B58">
         <v>55</v>
       </c>
@@ -3489,8 +3822,68 @@
         <f t="shared" si="0"/>
         <v>0110010110</v>
       </c>
-    </row>
-    <row r="59" spans="2:4" x14ac:dyDescent="0.25">
+      <c r="G58">
+        <v>24</v>
+      </c>
+      <c r="H58">
+        <v>47</v>
+      </c>
+      <c r="I58">
+        <v>32</v>
+      </c>
+      <c r="J58">
+        <v>60</v>
+      </c>
+      <c r="K58">
+        <v>99</v>
+      </c>
+      <c r="L58">
+        <v>3</v>
+      </c>
+      <c r="M58">
+        <v>45</v>
+      </c>
+      <c r="N58">
+        <v>2</v>
+      </c>
+      <c r="O58">
+        <v>44</v>
+      </c>
+      <c r="P58">
+        <v>75</v>
+      </c>
+      <c r="Q58">
+        <v>33</v>
+      </c>
+      <c r="R58">
+        <v>53</v>
+      </c>
+      <c r="S58">
+        <v>78</v>
+      </c>
+      <c r="T58">
+        <v>36</v>
+      </c>
+      <c r="U58">
+        <v>84</v>
+      </c>
+      <c r="V58">
+        <v>20</v>
+      </c>
+      <c r="W58">
+        <v>35</v>
+      </c>
+      <c r="X58">
+        <v>17</v>
+      </c>
+      <c r="Y58">
+        <v>12</v>
+      </c>
+      <c r="Z58">
+        <v>50</v>
+      </c>
+    </row>
+    <row r="59" spans="2:26" x14ac:dyDescent="0.25">
       <c r="B59">
         <v>56</v>
       </c>
@@ -3501,8 +3894,68 @@
         <f t="shared" si="0"/>
         <v>0110011010</v>
       </c>
-    </row>
-    <row r="60" spans="2:4" x14ac:dyDescent="0.25">
+      <c r="G59">
+        <v>32</v>
+      </c>
+      <c r="H59">
+        <v>98</v>
+      </c>
+      <c r="I59">
+        <v>81</v>
+      </c>
+      <c r="J59">
+        <v>28</v>
+      </c>
+      <c r="K59">
+        <v>64</v>
+      </c>
+      <c r="L59">
+        <v>23</v>
+      </c>
+      <c r="M59">
+        <v>67</v>
+      </c>
+      <c r="N59">
+        <v>10</v>
+      </c>
+      <c r="O59">
+        <v>26</v>
+      </c>
+      <c r="P59">
+        <v>38</v>
+      </c>
+      <c r="Q59">
+        <v>40</v>
+      </c>
+      <c r="R59">
+        <v>67</v>
+      </c>
+      <c r="S59">
+        <v>59</v>
+      </c>
+      <c r="T59">
+        <v>54</v>
+      </c>
+      <c r="U59">
+        <v>70</v>
+      </c>
+      <c r="V59">
+        <v>66</v>
+      </c>
+      <c r="W59">
+        <v>18</v>
+      </c>
+      <c r="X59">
+        <v>38</v>
+      </c>
+      <c r="Y59">
+        <v>64</v>
+      </c>
+      <c r="Z59">
+        <v>70</v>
+      </c>
+    </row>
+    <row r="60" spans="2:26" x14ac:dyDescent="0.25">
       <c r="B60">
         <v>57</v>
       </c>
@@ -3513,8 +3966,68 @@
         <f t="shared" si="0"/>
         <v>0110100101</v>
       </c>
-    </row>
-    <row r="61" spans="2:4" x14ac:dyDescent="0.25">
+      <c r="G60">
+        <v>67</v>
+      </c>
+      <c r="H60">
+        <v>26</v>
+      </c>
+      <c r="I60">
+        <v>20</v>
+      </c>
+      <c r="J60">
+        <v>68</v>
+      </c>
+      <c r="K60">
+        <v>2</v>
+      </c>
+      <c r="L60">
+        <v>62</v>
+      </c>
+      <c r="M60">
+        <v>12</v>
+      </c>
+      <c r="N60">
+        <v>20</v>
+      </c>
+      <c r="O60">
+        <v>95</v>
+      </c>
+      <c r="P60">
+        <v>63</v>
+      </c>
+      <c r="Q60">
+        <v>94</v>
+      </c>
+      <c r="R60">
+        <v>39</v>
+      </c>
+      <c r="S60">
+        <v>63</v>
+      </c>
+      <c r="T60">
+        <v>8</v>
+      </c>
+      <c r="U60">
+        <v>40</v>
+      </c>
+      <c r="V60">
+        <v>91</v>
+      </c>
+      <c r="W60">
+        <v>66</v>
+      </c>
+      <c r="X60">
+        <v>49</v>
+      </c>
+      <c r="Y60">
+        <v>94</v>
+      </c>
+      <c r="Z60">
+        <v>21</v>
+      </c>
+    </row>
+    <row r="61" spans="2:26" x14ac:dyDescent="0.25">
       <c r="B61">
         <v>58</v>
       </c>
@@ -3525,8 +4038,68 @@
         <f t="shared" si="0"/>
         <v>0110100110</v>
       </c>
-    </row>
-    <row r="62" spans="2:4" x14ac:dyDescent="0.25">
+      <c r="G61">
+        <v>24</v>
+      </c>
+      <c r="H61">
+        <v>55</v>
+      </c>
+      <c r="I61">
+        <v>58</v>
+      </c>
+      <c r="J61">
+        <v>5</v>
+      </c>
+      <c r="K61">
+        <v>66</v>
+      </c>
+      <c r="L61">
+        <v>73</v>
+      </c>
+      <c r="M61">
+        <v>99</v>
+      </c>
+      <c r="N61">
+        <v>26</v>
+      </c>
+      <c r="O61">
+        <v>97</v>
+      </c>
+      <c r="P61">
+        <v>17</v>
+      </c>
+      <c r="Q61">
+        <v>78</v>
+      </c>
+      <c r="R61">
+        <v>78</v>
+      </c>
+      <c r="S61">
+        <v>96</v>
+      </c>
+      <c r="T61">
+        <v>83</v>
+      </c>
+      <c r="U61">
+        <v>14</v>
+      </c>
+      <c r="V61">
+        <v>88</v>
+      </c>
+      <c r="W61">
+        <v>34</v>
+      </c>
+      <c r="X61">
+        <v>89</v>
+      </c>
+      <c r="Y61">
+        <v>63</v>
+      </c>
+      <c r="Z61">
+        <v>72</v>
+      </c>
+    </row>
+    <row r="62" spans="2:26" x14ac:dyDescent="0.25">
       <c r="B62">
         <v>59</v>
       </c>
@@ -3537,8 +4110,68 @@
         <f>DEC2BIN(C62,10)</f>
         <v>#NUM!</v>
       </c>
-    </row>
-    <row r="63" spans="2:4" x14ac:dyDescent="0.25">
+      <c r="G62">
+        <v>21</v>
+      </c>
+      <c r="H62">
+        <v>36</v>
+      </c>
+      <c r="I62">
+        <v>23</v>
+      </c>
+      <c r="J62">
+        <v>9</v>
+      </c>
+      <c r="K62">
+        <v>75</v>
+      </c>
+      <c r="L62">
+        <v>0</v>
+      </c>
+      <c r="M62">
+        <v>76</v>
+      </c>
+      <c r="N62">
+        <v>44</v>
+      </c>
+      <c r="O62">
+        <v>20</v>
+      </c>
+      <c r="P62">
+        <v>45</v>
+      </c>
+      <c r="Q62">
+        <v>35</v>
+      </c>
+      <c r="R62">
+        <v>14</v>
+      </c>
+      <c r="S62">
+        <v>0</v>
+      </c>
+      <c r="T62">
+        <v>61</v>
+      </c>
+      <c r="U62">
+        <v>33</v>
+      </c>
+      <c r="V62">
+        <v>97</v>
+      </c>
+      <c r="W62">
+        <v>34</v>
+      </c>
+      <c r="X62">
+        <v>31</v>
+      </c>
+      <c r="Y62">
+        <v>33</v>
+      </c>
+      <c r="Z62">
+        <v>95</v>
+      </c>
+    </row>
+    <row r="63" spans="2:26" x14ac:dyDescent="0.25">
       <c r="B63">
         <v>60</v>
       </c>
@@ -3549,8 +4182,68 @@
         <f t="shared" si="0"/>
         <v>#NUM!</v>
       </c>
-    </row>
-    <row r="64" spans="2:4" x14ac:dyDescent="0.25">
+      <c r="G63">
+        <v>78</v>
+      </c>
+      <c r="H63">
+        <v>17</v>
+      </c>
+      <c r="I63">
+        <v>53</v>
+      </c>
+      <c r="J63">
+        <v>28</v>
+      </c>
+      <c r="K63">
+        <v>22</v>
+      </c>
+      <c r="L63">
+        <v>75</v>
+      </c>
+      <c r="M63">
+        <v>31</v>
+      </c>
+      <c r="N63">
+        <v>67</v>
+      </c>
+      <c r="O63">
+        <v>15</v>
+      </c>
+      <c r="P63">
+        <v>94</v>
+      </c>
+      <c r="Q63">
+        <v>3</v>
+      </c>
+      <c r="R63">
+        <v>80</v>
+      </c>
+      <c r="S63">
+        <v>4</v>
+      </c>
+      <c r="T63">
+        <v>62</v>
+      </c>
+      <c r="U63">
+        <v>16</v>
+      </c>
+      <c r="V63">
+        <v>14</v>
+      </c>
+      <c r="W63">
+        <v>9</v>
+      </c>
+      <c r="X63">
+        <v>53</v>
+      </c>
+      <c r="Y63">
+        <v>56</v>
+      </c>
+      <c r="Z63">
+        <v>92</v>
+      </c>
+    </row>
+    <row r="64" spans="2:26" x14ac:dyDescent="0.25">
       <c r="B64">
         <v>61</v>
       </c>
@@ -3561,8 +4254,68 @@
         <f t="shared" si="0"/>
         <v>#NUM!</v>
       </c>
-    </row>
-    <row r="65" spans="2:4" x14ac:dyDescent="0.25">
+      <c r="G64">
+        <v>16</v>
+      </c>
+      <c r="H64">
+        <v>39</v>
+      </c>
+      <c r="I64">
+        <v>5</v>
+      </c>
+      <c r="J64">
+        <v>42</v>
+      </c>
+      <c r="K64">
+        <v>96</v>
+      </c>
+      <c r="L64">
+        <v>35</v>
+      </c>
+      <c r="M64">
+        <v>31</v>
+      </c>
+      <c r="N64">
+        <v>47</v>
+      </c>
+      <c r="O64">
+        <v>55</v>
+      </c>
+      <c r="P64">
+        <v>58</v>
+      </c>
+      <c r="Q64">
+        <v>88</v>
+      </c>
+      <c r="R64">
+        <v>24</v>
+      </c>
+      <c r="S64">
+        <v>0</v>
+      </c>
+      <c r="T64">
+        <v>17</v>
+      </c>
+      <c r="U64">
+        <v>54</v>
+      </c>
+      <c r="V64">
+        <v>24</v>
+      </c>
+      <c r="W64">
+        <v>36</v>
+      </c>
+      <c r="X64">
+        <v>29</v>
+      </c>
+      <c r="Y64">
+        <v>85</v>
+      </c>
+      <c r="Z64">
+        <v>57</v>
+      </c>
+    </row>
+    <row r="65" spans="2:26" x14ac:dyDescent="0.25">
       <c r="B65">
         <v>62</v>
       </c>
@@ -3573,8 +4326,68 @@
         <f t="shared" si="0"/>
         <v>#NUM!</v>
       </c>
-    </row>
-    <row r="66" spans="2:4" x14ac:dyDescent="0.25">
+      <c r="G65">
+        <v>86</v>
+      </c>
+      <c r="H65">
+        <v>56</v>
+      </c>
+      <c r="I65">
+        <v>0</v>
+      </c>
+      <c r="J65">
+        <v>48</v>
+      </c>
+      <c r="K65">
+        <v>35</v>
+      </c>
+      <c r="L65">
+        <v>71</v>
+      </c>
+      <c r="M65">
+        <v>89</v>
+      </c>
+      <c r="N65">
+        <v>7</v>
+      </c>
+      <c r="O65">
+        <v>5</v>
+      </c>
+      <c r="P65">
+        <v>44</v>
+      </c>
+      <c r="Q65">
+        <v>44</v>
+      </c>
+      <c r="R65">
+        <v>37</v>
+      </c>
+      <c r="S65">
+        <v>44</v>
+      </c>
+      <c r="T65">
+        <v>60</v>
+      </c>
+      <c r="U65">
+        <v>21</v>
+      </c>
+      <c r="V65">
+        <v>58</v>
+      </c>
+      <c r="W65">
+        <v>51</v>
+      </c>
+      <c r="X65">
+        <v>54</v>
+      </c>
+      <c r="Y65">
+        <v>17</v>
+      </c>
+      <c r="Z65">
+        <v>58</v>
+      </c>
+    </row>
+    <row r="66" spans="2:26" x14ac:dyDescent="0.25">
       <c r="B66">
         <v>63</v>
       </c>
@@ -3585,8 +4398,68 @@
         <f t="shared" si="0"/>
         <v>#NUM!</v>
       </c>
-    </row>
-    <row r="67" spans="2:4" x14ac:dyDescent="0.25">
+      <c r="G66">
+        <v>19</v>
+      </c>
+      <c r="H66">
+        <v>80</v>
+      </c>
+      <c r="I66">
+        <v>81</v>
+      </c>
+      <c r="J66">
+        <v>68</v>
+      </c>
+      <c r="K66">
+        <v>5</v>
+      </c>
+      <c r="L66">
+        <v>94</v>
+      </c>
+      <c r="M66">
+        <v>47</v>
+      </c>
+      <c r="N66">
+        <v>69</v>
+      </c>
+      <c r="O66">
+        <v>28</v>
+      </c>
+      <c r="P66">
+        <v>73</v>
+      </c>
+      <c r="Q66">
+        <v>92</v>
+      </c>
+      <c r="R66">
+        <v>13</v>
+      </c>
+      <c r="S66">
+        <v>86</v>
+      </c>
+      <c r="T66">
+        <v>52</v>
+      </c>
+      <c r="U66">
+        <v>17</v>
+      </c>
+      <c r="V66">
+        <v>77</v>
+      </c>
+      <c r="W66">
+        <v>4</v>
+      </c>
+      <c r="X66">
+        <v>89</v>
+      </c>
+      <c r="Y66">
+        <v>55</v>
+      </c>
+      <c r="Z66">
+        <v>40</v>
+      </c>
+    </row>
+    <row r="67" spans="2:26" x14ac:dyDescent="0.25">
       <c r="B67">
         <v>64</v>
       </c>
@@ -3597,8 +4470,68 @@
         <f t="shared" si="0"/>
         <v>#NUM!</v>
       </c>
-    </row>
-    <row r="68" spans="2:4" x14ac:dyDescent="0.25">
+      <c r="G67">
+        <v>4</v>
+      </c>
+      <c r="H67">
+        <v>52</v>
+      </c>
+      <c r="I67">
+        <v>8</v>
+      </c>
+      <c r="J67">
+        <v>83</v>
+      </c>
+      <c r="K67">
+        <v>97</v>
+      </c>
+      <c r="L67">
+        <v>35</v>
+      </c>
+      <c r="M67">
+        <v>99</v>
+      </c>
+      <c r="N67">
+        <v>16</v>
+      </c>
+      <c r="O67">
+        <v>7</v>
+      </c>
+      <c r="P67">
+        <v>97</v>
+      </c>
+      <c r="Q67">
+        <v>57</v>
+      </c>
+      <c r="R67">
+        <v>32</v>
+      </c>
+      <c r="S67">
+        <v>16</v>
+      </c>
+      <c r="T67">
+        <v>26</v>
+      </c>
+      <c r="U67">
+        <v>26</v>
+      </c>
+      <c r="V67">
+        <v>79</v>
+      </c>
+      <c r="W67">
+        <v>33</v>
+      </c>
+      <c r="X67">
+        <v>27</v>
+      </c>
+      <c r="Y67">
+        <v>98</v>
+      </c>
+      <c r="Z67">
+        <v>66</v>
+      </c>
+    </row>
+    <row r="68" spans="2:26" x14ac:dyDescent="0.25">
       <c r="B68">
         <v>65</v>
       </c>
@@ -3609,8 +4542,68 @@
         <f t="shared" ref="D68:D131" si="1">DEC2BIN(C68,$D$2)</f>
         <v>#NUM!</v>
       </c>
-    </row>
-    <row r="69" spans="2:4" x14ac:dyDescent="0.25">
+      <c r="G68">
+        <v>88</v>
+      </c>
+      <c r="H68">
+        <v>36</v>
+      </c>
+      <c r="I68">
+        <v>68</v>
+      </c>
+      <c r="J68">
+        <v>87</v>
+      </c>
+      <c r="K68">
+        <v>57</v>
+      </c>
+      <c r="L68">
+        <v>62</v>
+      </c>
+      <c r="M68">
+        <v>20</v>
+      </c>
+      <c r="N68">
+        <v>72</v>
+      </c>
+      <c r="O68">
+        <v>3</v>
+      </c>
+      <c r="P68">
+        <v>46</v>
+      </c>
+      <c r="Q68">
+        <v>33</v>
+      </c>
+      <c r="R68">
+        <v>67</v>
+      </c>
+      <c r="S68">
+        <v>46</v>
+      </c>
+      <c r="T68">
+        <v>55</v>
+      </c>
+      <c r="U68">
+        <v>12</v>
+      </c>
+      <c r="V68">
+        <v>32</v>
+      </c>
+      <c r="W68">
+        <v>63</v>
+      </c>
+      <c r="X68">
+        <v>93</v>
+      </c>
+      <c r="Y68">
+        <v>53</v>
+      </c>
+      <c r="Z68">
+        <v>69</v>
+      </c>
+    </row>
+    <row r="69" spans="2:26" x14ac:dyDescent="0.25">
       <c r="B69">
         <v>66</v>
       </c>
@@ -3621,8 +4614,68 @@
         <f t="shared" si="1"/>
         <v>#NUM!</v>
       </c>
-    </row>
-    <row r="70" spans="2:4" x14ac:dyDescent="0.25">
+      <c r="G69">
+        <v>4</v>
+      </c>
+      <c r="H69">
+        <v>42</v>
+      </c>
+      <c r="I69">
+        <v>16</v>
+      </c>
+      <c r="J69">
+        <v>73</v>
+      </c>
+      <c r="K69">
+        <v>38</v>
+      </c>
+      <c r="L69">
+        <v>25</v>
+      </c>
+      <c r="M69">
+        <v>39</v>
+      </c>
+      <c r="N69">
+        <v>11</v>
+      </c>
+      <c r="O69">
+        <v>24</v>
+      </c>
+      <c r="P69">
+        <v>94</v>
+      </c>
+      <c r="Q69">
+        <v>72</v>
+      </c>
+      <c r="R69">
+        <v>18</v>
+      </c>
+      <c r="S69">
+        <v>8</v>
+      </c>
+      <c r="T69">
+        <v>46</v>
+      </c>
+      <c r="U69">
+        <v>29</v>
+      </c>
+      <c r="V69">
+        <v>32</v>
+      </c>
+      <c r="W69">
+        <v>40</v>
+      </c>
+      <c r="X69">
+        <v>62</v>
+      </c>
+      <c r="Y69">
+        <v>76</v>
+      </c>
+      <c r="Z69">
+        <v>36</v>
+      </c>
+    </row>
+    <row r="70" spans="2:26" x14ac:dyDescent="0.25">
       <c r="B70">
         <v>67</v>
       </c>
@@ -3633,8 +4686,68 @@
         <f t="shared" si="1"/>
         <v>#NUM!</v>
       </c>
-    </row>
-    <row r="71" spans="2:4" x14ac:dyDescent="0.25">
+      <c r="G70">
+        <v>20</v>
+      </c>
+      <c r="H70">
+        <v>69</v>
+      </c>
+      <c r="I70">
+        <v>36</v>
+      </c>
+      <c r="J70">
+        <v>41</v>
+      </c>
+      <c r="K70">
+        <v>72</v>
+      </c>
+      <c r="L70">
+        <v>30</v>
+      </c>
+      <c r="M70">
+        <v>23</v>
+      </c>
+      <c r="N70">
+        <v>88</v>
+      </c>
+      <c r="O70">
+        <v>34</v>
+      </c>
+      <c r="P70">
+        <v>62</v>
+      </c>
+      <c r="Q70">
+        <v>99</v>
+      </c>
+      <c r="R70">
+        <v>69</v>
+      </c>
+      <c r="S70">
+        <v>82</v>
+      </c>
+      <c r="T70">
+        <v>67</v>
+      </c>
+      <c r="U70">
+        <v>59</v>
+      </c>
+      <c r="V70">
+        <v>85</v>
+      </c>
+      <c r="W70">
+        <v>74</v>
+      </c>
+      <c r="X70">
+        <v>4</v>
+      </c>
+      <c r="Y70">
+        <v>36</v>
+      </c>
+      <c r="Z70">
+        <v>16</v>
+      </c>
+    </row>
+    <row r="71" spans="2:26" x14ac:dyDescent="0.25">
       <c r="B71">
         <v>68</v>
       </c>
@@ -3645,8 +4758,68 @@
         <f t="shared" si="1"/>
         <v>#NUM!</v>
       </c>
-    </row>
-    <row r="72" spans="2:4" x14ac:dyDescent="0.25">
+      <c r="G71">
+        <v>20</v>
+      </c>
+      <c r="H71">
+        <v>73</v>
+      </c>
+      <c r="I71">
+        <v>35</v>
+      </c>
+      <c r="J71">
+        <v>29</v>
+      </c>
+      <c r="K71">
+        <v>78</v>
+      </c>
+      <c r="L71">
+        <v>31</v>
+      </c>
+      <c r="M71">
+        <v>90</v>
+      </c>
+      <c r="N71">
+        <v>1</v>
+      </c>
+      <c r="O71">
+        <v>74</v>
+      </c>
+      <c r="P71">
+        <v>31</v>
+      </c>
+      <c r="Q71">
+        <v>49</v>
+      </c>
+      <c r="R71">
+        <v>71</v>
+      </c>
+      <c r="S71">
+        <v>48</v>
+      </c>
+      <c r="T71">
+        <v>86</v>
+      </c>
+      <c r="U71">
+        <v>81</v>
+      </c>
+      <c r="V71">
+        <v>16</v>
+      </c>
+      <c r="W71">
+        <v>23</v>
+      </c>
+      <c r="X71">
+        <v>57</v>
+      </c>
+      <c r="Y71">
+        <v>5</v>
+      </c>
+      <c r="Z71">
+        <v>54</v>
+      </c>
+    </row>
+    <row r="72" spans="2:26" x14ac:dyDescent="0.25">
       <c r="B72">
         <v>69</v>
       </c>
@@ -3657,8 +4830,68 @@
         <f t="shared" si="1"/>
         <v>#NUM!</v>
       </c>
-    </row>
-    <row r="73" spans="2:4" x14ac:dyDescent="0.25">
+      <c r="G72">
+        <v>1</v>
+      </c>
+      <c r="H72">
+        <v>70</v>
+      </c>
+      <c r="I72">
+        <v>54</v>
+      </c>
+      <c r="J72">
+        <v>71</v>
+      </c>
+      <c r="K72">
+        <v>83</v>
+      </c>
+      <c r="L72">
+        <v>51</v>
+      </c>
+      <c r="M72">
+        <v>54</v>
+      </c>
+      <c r="N72">
+        <v>69</v>
+      </c>
+      <c r="O72">
+        <v>16</v>
+      </c>
+      <c r="P72">
+        <v>92</v>
+      </c>
+      <c r="Q72">
+        <v>33</v>
+      </c>
+      <c r="R72">
+        <v>48</v>
+      </c>
+      <c r="S72">
+        <v>61</v>
+      </c>
+      <c r="T72">
+        <v>43</v>
+      </c>
+      <c r="U72">
+        <v>52</v>
+      </c>
+      <c r="V72">
+        <v>1</v>
+      </c>
+      <c r="W72">
+        <v>89</v>
+      </c>
+      <c r="X72">
+        <v>19</v>
+      </c>
+      <c r="Y72">
+        <v>67</v>
+      </c>
+      <c r="Z72">
+        <v>48</v>
+      </c>
+    </row>
+    <row r="73" spans="2:26" x14ac:dyDescent="0.25">
       <c r="B73">
         <v>70</v>
       </c>
@@ -3670,7 +4903,7 @@
         <v>#NUM!</v>
       </c>
     </row>
-    <row r="74" spans="2:4" x14ac:dyDescent="0.25">
+    <row r="74" spans="2:26" x14ac:dyDescent="0.25">
       <c r="B74">
         <v>71</v>
       </c>
@@ -3682,7 +4915,7 @@
         <v>#NUM!</v>
       </c>
     </row>
-    <row r="75" spans="2:4" x14ac:dyDescent="0.25">
+    <row r="75" spans="2:26" x14ac:dyDescent="0.25">
       <c r="B75">
         <v>72</v>
       </c>
@@ -3694,7 +4927,7 @@
         <v>#NUM!</v>
       </c>
     </row>
-    <row r="76" spans="2:4" x14ac:dyDescent="0.25">
+    <row r="76" spans="2:26" x14ac:dyDescent="0.25">
       <c r="B76">
         <v>73</v>
       </c>
@@ -3706,7 +4939,7 @@
         <v>#NUM!</v>
       </c>
     </row>
-    <row r="77" spans="2:4" x14ac:dyDescent="0.25">
+    <row r="77" spans="2:26" x14ac:dyDescent="0.25">
       <c r="B77">
         <v>74</v>
       </c>
@@ -3718,7 +4951,7 @@
         <v>#NUM!</v>
       </c>
     </row>
-    <row r="78" spans="2:4" x14ac:dyDescent="0.25">
+    <row r="78" spans="2:26" x14ac:dyDescent="0.25">
       <c r="B78">
         <v>75</v>
       </c>
@@ -3730,7 +4963,7 @@
         <v>#NUM!</v>
       </c>
     </row>
-    <row r="79" spans="2:4" x14ac:dyDescent="0.25">
+    <row r="79" spans="2:26" x14ac:dyDescent="0.25">
       <c r="B79">
         <v>76</v>
       </c>
@@ -3742,7 +4975,7 @@
         <v>#NUM!</v>
       </c>
     </row>
-    <row r="80" spans="2:4" x14ac:dyDescent="0.25">
+    <row r="80" spans="2:26" x14ac:dyDescent="0.25">
       <c r="B80">
         <v>77</v>
       </c>
@@ -7224,7 +8457,8 @@
     </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-  <drawing r:id="rId1"/>
+  <pageSetup orientation="portrait" r:id="rId1"/>
+  <drawing r:id="rId2"/>
 </worksheet>
 </file>
 
